--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3013601.65</v>
+        <v>13505564.3</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125566.74</v>
+        <v>346296.52</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129770.21</v>
+        <v>150150.69</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179344.83</v>
+        <v>179416.06</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238303.7</v>
+        <v>237814.49</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239344</v>
+        <v>239197.42</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233865.77</v>
+        <v>234064.97</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>630925.6899999999</v>
+        <v>630802.49</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109839.62</v>
+        <v>110421.13</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>136537.83</v>
+        <v>131183.41</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>178447.06</v>
+        <v>177859.45</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86571.44</v>
+        <v>86902.44</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62230.6</v>
+        <v>62064.37</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81216.74000000001</v>
+        <v>81293.42999999999</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85023.03</v>
+        <v>84808.58</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98236.05</v>
+        <v>98364.19</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59784.72</v>
+        <v>59690.34</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40133.2</v>
+        <v>40219.78</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>27731.89</v>
+        <v>29772.23</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>81549.48</v>
+        <v>70533.05</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189647.12</v>
+        <v>198878.85</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41362.35</v>
+        <v>41296.6</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9739.360000000001</v>
+        <v>9799.6</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44639.72</v>
+        <v>44535.28</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2288.32</v>
+        <v>2281.51</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,157 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>27068.92</v>
+        <v>26979.75</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>343184.33</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>17110.05</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>17892.65</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1896585.51</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9017.16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>670766.78</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>93441.53</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>45035.69</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>15165.55</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1606994.86</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1987.05</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2281.51</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>375750.85</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1380667.26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4001353.41</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -733,7 +733,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B31" t="n">

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,38 +436,52 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13505564.3</v>
+        <v>228185.25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>228540.77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>346296.52</v>
+        <v>151389.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>151779.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150150.69</v>
+        <v>41369.59</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41212.78</v>
       </c>
     </row>
     <row r="5">
@@ -477,237 +491,307 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179416.06</v>
+        <v>180234.75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>180966.68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>237814.49</v>
+        <v>9016.200000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8938.059999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>239197.42</v>
+        <v>672502.0600000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>667763.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234064.97</v>
+        <v>9775.870000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9787.889999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>630802.49</v>
+        <v>15162.45</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15167.95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110421.13</v>
+        <v>44970.43</v>
+      </c>
+      <c r="C10" t="n">
+        <v>44972.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>131183.41</v>
+        <v>237325.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>230141.76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>177859.45</v>
+        <v>1594503.64</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1588335.52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86902.44</v>
+        <v>239900.8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>241153.55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>62064.37</v>
+        <v>233987.19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>234157.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>81293.42999999999</v>
+        <v>343675.59</v>
+      </c>
+      <c r="C15" t="n">
+        <v>345053.22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84808.58</v>
+        <v>93014.88</v>
+      </c>
+      <c r="C16" t="n">
+        <v>92115.71000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>98364.19</v>
+        <v>92906.27</v>
+      </c>
+      <c r="C17" t="n">
+        <v>100357</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>59690.34</v>
+        <v>90401.28999999999</v>
+      </c>
+      <c r="C18" t="n">
+        <v>98716.33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40219.78</v>
+        <v>644846.62</v>
+      </c>
+      <c r="C19" t="n">
+        <v>667794.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29772.23</v>
+        <v>170764.4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>170767.56</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>70533.05</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
+        <v>3923342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198878.85</v>
+        <v>44619.09</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44513.71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>41296.6</v>
+        <v>2003.42</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2015.97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9799.6</v>
+        <v>131458.68</v>
+      </c>
+      <c r="C24" t="n">
+        <v>131464.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44535.28</v>
+        <v>178238.73</v>
+      </c>
+      <c r="C25" t="n">
+        <v>179125.87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2281.51</v>
+        <v>31403.21</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31611.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26979.75</v>
+        <v>2288.64</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3172.93</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>343184.33</v>
+        <v>2288.64</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3172.93</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +801,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17110.05</v>
+        <v>17014.62</v>
+      </c>
+      <c r="C29" t="n">
+        <v>17221.56</v>
       </c>
     </row>
     <row r="30">
@@ -727,127 +814,177 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17892.65</v>
+        <v>18143.13</v>
+      </c>
+      <c r="C30" t="n">
+        <v>17914.92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1896585.51</v>
+        <v>27148.48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27070.97</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9017.16</v>
+        <v>98118.99000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>98230.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>670766.78</v>
+        <v>59571.71</v>
+      </c>
+      <c r="C33" t="n">
+        <v>59223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93441.53</v>
+        <v>70616.19</v>
+      </c>
+      <c r="C34" t="n">
+        <v>70754.56</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45035.69</v>
+        <v>86712.78</v>
+      </c>
+      <c r="C35" t="n">
+        <v>86322.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>15165.55</v>
+        <v>61966.14</v>
+      </c>
+      <c r="C36" t="n">
+        <v>62224.84</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1606994.86</v>
+          <t>SBS Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
+        <v>141434.49</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1987.05</v>
+        <v>375152.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>376145.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2281.51</v>
+        <v>1377230.41</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1376831.53</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>375750.85</v>
+        <v>1992577.89</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2091740.24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1380667.26</v>
+        <v>40099.45</v>
+      </c>
+      <c r="C41" t="n">
+        <v>40058.31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4001353.41</v>
+        <v>255541.7</v>
+      </c>
+      <c r="C42" t="n">
+        <v>347532.89</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9710584.779999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>13901315.46</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,543 +443,411 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228185.25</v>
-      </c>
-      <c r="C2" t="n">
-        <v>228540.77</v>
+        <v>13898142.53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151389.2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>151779.56</v>
+        <v>356362.63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41369.59</v>
-      </c>
-      <c r="C4" t="n">
-        <v>41212.78</v>
+        <v>228540.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>180234.75</v>
-      </c>
-      <c r="C5" t="n">
-        <v>180966.68</v>
+        <v>151779.56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9016.200000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>8938.059999999999</v>
+        <v>41212.78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>672502.0600000001</v>
-      </c>
-      <c r="C7" t="n">
-        <v>667763.02</v>
+        <v>180966.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9775.870000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9787.889999999999</v>
+        <v>8938.059999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15162.45</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15167.95</v>
+        <v>667763.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>44970.43</v>
-      </c>
-      <c r="C10" t="n">
-        <v>44972.96</v>
+        <v>9787.889999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237325.85</v>
-      </c>
-      <c r="C11" t="n">
-        <v>230141.76</v>
+        <v>15167.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1594503.64</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1588335.52</v>
+        <v>44972.96</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>239900.8</v>
-      </c>
-      <c r="C13" t="n">
-        <v>241153.55</v>
+        <v>230141.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233987.19</v>
-      </c>
-      <c r="C14" t="n">
-        <v>234157.45</v>
+        <v>1588335.52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>343675.59</v>
-      </c>
-      <c r="C15" t="n">
-        <v>345053.22</v>
+        <v>241153.55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93014.88</v>
-      </c>
-      <c r="C16" t="n">
-        <v>92115.71000000001</v>
+        <v>234157.45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92906.27</v>
-      </c>
-      <c r="C17" t="n">
-        <v>100357</v>
+        <v>345053.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>90401.28999999999</v>
-      </c>
-      <c r="C18" t="n">
-        <v>98716.33</v>
+        <v>92115.71000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>644846.62</v>
-      </c>
-      <c r="C19" t="n">
-        <v>667794.67</v>
+        <v>100357</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170764.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>170767.56</v>
+        <v>98716.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Galileo</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
-        <v>3923342</v>
+          <t>Fima Acciones</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>667794.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44619.09</v>
-      </c>
-      <c r="C22" t="n">
-        <v>44513.71</v>
+        <v>170767.56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2003.42</v>
-      </c>
-      <c r="C23" t="n">
-        <v>2015.97</v>
+        <v>3923342</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131458.68</v>
-      </c>
-      <c r="C24" t="n">
-        <v>131464.87</v>
+        <v>44513.71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>178238.73</v>
-      </c>
-      <c r="C25" t="n">
-        <v>179125.87</v>
+        <v>2015.97</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31403.21</v>
-      </c>
-      <c r="C26" t="n">
-        <v>31611.5</v>
+        <v>131464.87</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2288.64</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3172.93</v>
+        <v>179125.87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2288.64</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3172.93</v>
+        <v>31611.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17014.62</v>
-      </c>
-      <c r="C29" t="n">
-        <v>17221.56</v>
+        <v>3172.93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18143.13</v>
-      </c>
-      <c r="C30" t="n">
-        <v>17914.92</v>
+        <v>17221.56</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27148.48</v>
-      </c>
-      <c r="C31" t="n">
-        <v>27070.97</v>
+        <v>17914.92</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>98118.99000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>98230.83</v>
+        <v>27070.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>59571.71</v>
-      </c>
-      <c r="C33" t="n">
-        <v>59223</v>
+        <v>98230.83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70616.19</v>
-      </c>
-      <c r="C34" t="n">
-        <v>70754.56</v>
+        <v>59223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>86712.78</v>
-      </c>
-      <c r="C35" t="n">
-        <v>86322.5</v>
+        <v>70754.56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>61966.14</v>
-      </c>
-      <c r="C36" t="n">
-        <v>62224.84</v>
+        <v>86322.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
-        <v>141434.49</v>
+          <t>Rofex 20 Renta Variable</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>62224.84</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>375152.25</v>
-      </c>
-      <c r="C38" t="n">
-        <v>376145.49</v>
+        <v>141434.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1377230.41</v>
-      </c>
-      <c r="C39" t="n">
-        <v>1376831.53</v>
+        <v>376145.49</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1992577.89</v>
-      </c>
-      <c r="C40" t="n">
-        <v>2091740.24</v>
+        <v>1376831.53</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40099.45</v>
-      </c>
-      <c r="C41" t="n">
-        <v>40058.31</v>
+        <v>2091740.24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>255541.7</v>
-      </c>
-      <c r="C42" t="n">
-        <v>347532.89</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>9710584.779999999</v>
-      </c>
-      <c r="C43" t="n">
-        <v>13901315.46</v>
+        <v>40058.31</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,415 +439,527 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13898142.53</v>
+        <v>228540.77</v>
+      </c>
+      <c r="C2" t="n">
+        <v>228317.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>356362.63</v>
+        <v>151779.56</v>
+      </c>
+      <c r="C3" t="n">
+        <v>150021.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228540.77</v>
+        <v>41212.78</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41305.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>151779.56</v>
+        <v>180966.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>180612.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41212.78</v>
+        <v>8938.059999999999</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8963.26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>180966.68</v>
+        <v>667763.02</v>
+      </c>
+      <c r="C7" t="n">
+        <v>668178.99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8938.059999999999</v>
+        <v>9787.889999999999</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9774.530000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>667763.02</v>
+        <v>15167.95</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15159.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9787.889999999999</v>
+        <v>44972.96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45025.72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15167.95</v>
+        <v>230141.76</v>
+      </c>
+      <c r="C11" t="n">
+        <v>231091.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>44972.96</v>
+        <v>1588335.52</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1579787.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>230141.76</v>
-      </c>
+        <v>241153.55</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1588335.52</v>
-      </c>
+        <v>234157.45</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>241153.55</v>
-      </c>
+        <v>345053.22</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>234157.45</v>
-      </c>
+        <v>92115.71000000001</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>345053.22</v>
-      </c>
+        <v>100357</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>92115.71000000001</v>
-      </c>
+        <v>98716.33</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>100357</v>
-      </c>
+        <v>667794.67</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98716.33</v>
+        <v>170767.56</v>
+      </c>
+      <c r="C20" t="n">
+        <v>171096.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>667794.67</v>
+        <v>3923342</v>
+      </c>
+      <c r="C21" t="n">
+        <v>3924173.45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>170767.56</v>
+        <v>44513.71</v>
+      </c>
+      <c r="C22" t="n">
+        <v>44699.71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3923342</v>
+        <v>2015.97</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2001.29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>44513.71</v>
+        <v>131464.87</v>
+      </c>
+      <c r="C24" t="n">
+        <v>131660.55</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2015.97</v>
+        <v>179125.87</v>
+      </c>
+      <c r="C25" t="n">
+        <v>177945.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>131464.87</v>
+        <v>31611.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32867.42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>179125.87</v>
+        <v>3172.93</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3195.36</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31611.5</v>
+        <v>17221.56</v>
+      </c>
+      <c r="C28" t="n">
+        <v>17199.12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3172.93</v>
+        <v>17914.92</v>
+      </c>
+      <c r="C29" t="n">
+        <v>18105.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>17221.56</v>
+        <v>27070.97</v>
+      </c>
+      <c r="C30" t="n">
+        <v>27054.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17914.92</v>
-      </c>
+        <v>98230.83</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>27070.97</v>
+        <v>59223</v>
+      </c>
+      <c r="C32" t="n">
+        <v>59055.94</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98230.83</v>
+        <v>70754.56</v>
+      </c>
+      <c r="C33" t="n">
+        <v>70741.14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>59223</v>
+        <v>86322.5</v>
+      </c>
+      <c r="C34" t="n">
+        <v>86828.71000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70754.56</v>
+        <v>62224.84</v>
+      </c>
+      <c r="C35" t="n">
+        <v>62146.73</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>86322.5</v>
+        <v>141434.49</v>
+      </c>
+      <c r="C36" t="n">
+        <v>238036.54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62224.84</v>
+        <v>376145.49</v>
+      </c>
+      <c r="C37" t="n">
+        <v>376234.52</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141434.49</v>
+        <v>1376831.53</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1379923.04</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>376145.49</v>
+        <v>2091740.24</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2092740.93</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1376831.53</v>
+        <v>40058.31</v>
+      </c>
+      <c r="C40" t="n">
+        <v>40239.96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2091740.24</v>
+        <v>356362.63</v>
+      </c>
+      <c r="C41" t="n">
+        <v>390780.11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40058.31</v>
+        <v>13898142.53</v>
+      </c>
+      <c r="C42" t="n">
+        <v>12114183.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>228317.61</v>
       </c>
+      <c r="D2" t="n">
+        <v>228648.01</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>150021.85</v>
       </c>
+      <c r="D3" t="n">
+        <v>150436.98</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>41305.64</v>
       </c>
+      <c r="D4" t="n">
+        <v>58543.12</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>180612.28</v>
       </c>
+      <c r="D5" t="n">
+        <v>180292.69</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>8963.26</v>
       </c>
+      <c r="D6" t="n">
+        <v>9010.879999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>668178.99</v>
       </c>
+      <c r="D7" t="n">
+        <v>670998.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>9774.530000000001</v>
       </c>
+      <c r="D8" t="n">
+        <v>9796.280000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>15159.23</v>
       </c>
+      <c r="D9" t="n">
+        <v>15161.48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>45025.72</v>
       </c>
+      <c r="D10" t="n">
+        <v>44963.69</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>231091.38</v>
       </c>
+      <c r="D11" t="n">
+        <v>230174.98</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>1579787.3</v>
       </c>
+      <c r="D12" t="n">
+        <v>1574484.28</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -598,6 +636,9 @@
         <v>241153.55</v>
       </c>
       <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>240076.65</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -609,6 +650,9 @@
         <v>234157.45</v>
       </c>
       <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>233733.97</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -620,6 +664,9 @@
         <v>345053.22</v>
       </c>
       <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>315195.98</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -631,6 +678,9 @@
         <v>92115.71000000001</v>
       </c>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>91174.13</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -642,6 +692,9 @@
         <v>100357</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>106990.18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -653,6 +706,9 @@
         <v>98716.33</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>108180.77</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -664,6 +720,9 @@
         <v>667794.67</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>691463.39</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -677,6 +736,9 @@
       <c r="C20" t="n">
         <v>171096.47</v>
       </c>
+      <c r="D20" t="n">
+        <v>169692.99</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -690,6 +752,9 @@
       <c r="C21" t="n">
         <v>3924173.45</v>
       </c>
+      <c r="D21" t="n">
+        <v>3920165.58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -703,6 +768,9 @@
       <c r="C22" t="n">
         <v>44699.71</v>
       </c>
+      <c r="D22" t="n">
+        <v>29695.77</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -716,6 +784,9 @@
       <c r="C23" t="n">
         <v>2001.29</v>
       </c>
+      <c r="D23" t="n">
+        <v>2016.23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -729,6 +800,9 @@
       <c r="C24" t="n">
         <v>131660.55</v>
       </c>
+      <c r="D24" t="n">
+        <v>131293.31</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -742,6 +816,9 @@
       <c r="C25" t="n">
         <v>177945.73</v>
       </c>
+      <c r="D25" t="n">
+        <v>162096.54</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -755,6 +832,9 @@
       <c r="C26" t="n">
         <v>32867.42</v>
       </c>
+      <c r="D26" t="n">
+        <v>42489.83</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -768,6 +848,9 @@
       <c r="C27" t="n">
         <v>3195.36</v>
       </c>
+      <c r="D27" t="n">
+        <v>3658.87</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -781,6 +864,9 @@
       <c r="C28" t="n">
         <v>17199.12</v>
       </c>
+      <c r="D28" t="n">
+        <v>36859.53</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -794,6 +880,9 @@
       <c r="C29" t="n">
         <v>18105.08</v>
       </c>
+      <c r="D29" t="n">
+        <v>18021.53</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -807,6 +896,9 @@
       <c r="C30" t="n">
         <v>27054.06</v>
       </c>
+      <c r="D30" t="n">
+        <v>20063.61</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -818,6 +910,9 @@
         <v>98230.83</v>
       </c>
       <c r="C31" t="inlineStr"/>
+      <c r="D31" t="n">
+        <v>97963.47</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -831,6 +926,9 @@
       <c r="C32" t="n">
         <v>59055.94</v>
       </c>
+      <c r="D32" t="n">
+        <v>59576.39</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -844,6 +942,9 @@
       <c r="C33" t="n">
         <v>70741.14</v>
       </c>
+      <c r="D33" t="n">
+        <v>80825.78999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -857,6 +958,9 @@
       <c r="C34" t="n">
         <v>86828.71000000001</v>
       </c>
+      <c r="D34" t="n">
+        <v>86359.42999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -870,6 +974,9 @@
       <c r="C35" t="n">
         <v>62146.73</v>
       </c>
+      <c r="D35" t="n">
+        <v>58491.76</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -883,6 +990,9 @@
       <c r="C36" t="n">
         <v>238036.54</v>
       </c>
+      <c r="D36" t="n">
+        <v>342975.05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -896,6 +1006,9 @@
       <c r="C37" t="n">
         <v>376234.52</v>
       </c>
+      <c r="D37" t="n">
+        <v>375697.1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -909,6 +1022,9 @@
       <c r="C38" t="n">
         <v>1379923.04</v>
       </c>
+      <c r="D38" t="n">
+        <v>1422133.76</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -922,6 +1038,9 @@
       <c r="C39" t="n">
         <v>2092740.93</v>
       </c>
+      <c r="D39" t="n">
+        <v>2092542.65</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -935,6 +1054,9 @@
       <c r="C40" t="n">
         <v>40239.96</v>
       </c>
+      <c r="D40" t="n">
+        <v>40215.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -948,6 +1070,9 @@
       <c r="C41" t="n">
         <v>390780.11</v>
       </c>
+      <c r="D41" t="n">
+        <v>362875.89</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -960,6 +1085,9 @@
       </c>
       <c r="C42" t="n">
         <v>12114183.54</v>
+      </c>
+      <c r="D42" t="n">
+        <v>14152159.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>228648.01</v>
       </c>
+      <c r="E2" t="n">
+        <v>227629.62</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>150436.98</v>
       </c>
+      <c r="E3" t="n">
+        <v>150775.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>58543.12</v>
       </c>
+      <c r="E4" t="n">
+        <v>58638.85</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>180292.69</v>
       </c>
+      <c r="E5" t="n">
+        <v>180547.33</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>9010.879999999999</v>
       </c>
+      <c r="E6" t="n">
+        <v>8940.110000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>670998.12</v>
       </c>
+      <c r="E7" t="n">
+        <v>672713.64</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>9796.280000000001</v>
       </c>
+      <c r="E8" t="n">
+        <v>9776.48</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>15161.48</v>
       </c>
+      <c r="E9" t="n">
+        <v>15168.96</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>44963.69</v>
       </c>
+      <c r="E10" t="n">
+        <v>44995.82</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>230174.98</v>
       </c>
+      <c r="E11" t="n">
+        <v>230623.44</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -624,6 +659,9 @@
       </c>
       <c r="D12" t="n">
         <v>1574484.28</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1559368.61</v>
       </c>
     </row>
     <row r="13">
@@ -639,6 +677,9 @@
       <c r="D13" t="n">
         <v>240076.65</v>
       </c>
+      <c r="E13" t="n">
+        <v>240433.74</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -653,6 +694,9 @@
       <c r="D14" t="n">
         <v>233733.97</v>
       </c>
+      <c r="E14" t="n">
+        <v>233658.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -667,6 +711,9 @@
       <c r="D15" t="n">
         <v>315195.98</v>
       </c>
+      <c r="E15" t="n">
+        <v>310370.39</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -681,6 +728,9 @@
       <c r="D16" t="n">
         <v>91174.13</v>
       </c>
+      <c r="E16" t="n">
+        <v>91391.17</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -695,6 +745,9 @@
       <c r="D17" t="n">
         <v>106990.18</v>
       </c>
+      <c r="E17" t="n">
+        <v>112195.88</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -709,6 +762,9 @@
       <c r="D18" t="n">
         <v>108180.77</v>
       </c>
+      <c r="E18" t="n">
+        <v>108964.06</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -723,6 +779,9 @@
       <c r="D19" t="n">
         <v>691463.39</v>
       </c>
+      <c r="E19" t="n">
+        <v>751930.59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -739,6 +798,9 @@
       <c r="D20" t="n">
         <v>169692.99</v>
       </c>
+      <c r="E20" t="n">
+        <v>170009.73</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -755,6 +817,9 @@
       <c r="D21" t="n">
         <v>3920165.58</v>
       </c>
+      <c r="E21" t="n">
+        <v>3921133.09</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -771,6 +836,9 @@
       <c r="D22" t="n">
         <v>29695.77</v>
       </c>
+      <c r="E22" t="n">
+        <v>29602.93</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -787,6 +855,9 @@
       <c r="D23" t="n">
         <v>2016.23</v>
       </c>
+      <c r="E23" t="n">
+        <v>2013.81</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -803,6 +874,9 @@
       <c r="D24" t="n">
         <v>131293.31</v>
       </c>
+      <c r="E24" t="n">
+        <v>131190.33</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -819,6 +893,9 @@
       <c r="D25" t="n">
         <v>162096.54</v>
       </c>
+      <c r="E25" t="n">
+        <v>161564.12</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -835,6 +912,9 @@
       <c r="D26" t="n">
         <v>42489.83</v>
       </c>
+      <c r="E26" t="n">
+        <v>44411.51</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -851,6 +931,9 @@
       <c r="D27" t="n">
         <v>3658.87</v>
       </c>
+      <c r="E27" t="n">
+        <v>3647.03</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -867,6 +950,9 @@
       <c r="D28" t="n">
         <v>36859.53</v>
       </c>
+      <c r="E28" t="n">
+        <v>41000.29</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -883,6 +969,9 @@
       <c r="D29" t="n">
         <v>18021.53</v>
       </c>
+      <c r="E29" t="n">
+        <v>28147.86</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -898,6 +987,9 @@
       </c>
       <c r="D30" t="n">
         <v>20063.61</v>
+      </c>
+      <c r="E30" t="n">
+        <v>20021.43</v>
       </c>
     </row>
     <row r="31">
@@ -913,6 +1005,9 @@
       <c r="D31" t="n">
         <v>97963.47</v>
       </c>
+      <c r="E31" t="n">
+        <v>98109.58</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -929,6 +1024,9 @@
       <c r="D32" t="n">
         <v>59576.39</v>
       </c>
+      <c r="E32" t="n">
+        <v>227622.62</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -945,6 +1043,9 @@
       <c r="D33" t="n">
         <v>80825.78999999999</v>
       </c>
+      <c r="E33" t="n">
+        <v>80712.02</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -961,6 +1062,9 @@
       <c r="D34" t="n">
         <v>86359.42999999999</v>
       </c>
+      <c r="E34" t="n">
+        <v>86453.44</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -977,6 +1081,9 @@
       <c r="D35" t="n">
         <v>58491.76</v>
       </c>
+      <c r="E35" t="n">
+        <v>57223.75</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -993,6 +1100,9 @@
       <c r="D36" t="n">
         <v>342975.05</v>
       </c>
+      <c r="E36" t="n">
+        <v>343624.62</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1009,6 +1119,9 @@
       <c r="D37" t="n">
         <v>375697.1</v>
       </c>
+      <c r="E37" t="n">
+        <v>414459.29</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1025,6 +1138,7 @@
       <c r="D38" t="n">
         <v>1422133.76</v>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1041,6 +1155,9 @@
       <c r="D39" t="n">
         <v>2092542.65</v>
       </c>
+      <c r="E39" t="n">
+        <v>2091666.21</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1057,6 +1174,9 @@
       <c r="D40" t="n">
         <v>40215.1</v>
       </c>
+      <c r="E40" t="n">
+        <v>40084.27</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1073,6 +1193,9 @@
       <c r="D41" t="n">
         <v>362875.89</v>
       </c>
+      <c r="E41" t="n">
+        <v>342126.86</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1088,6 +1211,9 @@
       </c>
       <c r="D42" t="n">
         <v>14152159.87</v>
+      </c>
+      <c r="E42" t="n">
+        <v>13000820.68</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>227629.62</v>
       </c>
+      <c r="F2" t="n">
+        <v>220243.54</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>150775.46</v>
       </c>
+      <c r="F3" t="n">
+        <v>150419.96</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>58638.85</v>
       </c>
+      <c r="F4" t="n">
+        <v>58594.61</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>180547.33</v>
       </c>
+      <c r="F5" t="n">
+        <v>180169.6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>8940.110000000001</v>
       </c>
+      <c r="F6" t="n">
+        <v>8980.6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>672713.64</v>
       </c>
+      <c r="F7" t="n">
+        <v>671909.63</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>9776.48</v>
       </c>
+      <c r="F8" t="n">
+        <v>9749.690000000001</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>15168.96</v>
       </c>
+      <c r="F9" t="n">
+        <v>15162.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>44995.82</v>
       </c>
+      <c r="F10" t="n">
+        <v>44996.74</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>230623.44</v>
       </c>
+      <c r="F11" t="n">
+        <v>230446.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -662,6 +697,9 @@
       </c>
       <c r="E12" t="n">
         <v>1559368.61</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1557640.7</v>
       </c>
     </row>
     <row r="13">
@@ -680,6 +718,9 @@
       <c r="E13" t="n">
         <v>240433.74</v>
       </c>
+      <c r="F13" t="n">
+        <v>240970.69</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -697,6 +738,9 @@
       <c r="E14" t="n">
         <v>233658.6</v>
       </c>
+      <c r="F14" t="n">
+        <v>233737.46</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -714,6 +758,9 @@
       <c r="E15" t="n">
         <v>310370.39</v>
       </c>
+      <c r="F15" t="n">
+        <v>310284.28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -731,6 +778,9 @@
       <c r="E16" t="n">
         <v>91391.17</v>
       </c>
+      <c r="F16" t="n">
+        <v>91707.50999999999</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -748,6 +798,9 @@
       <c r="E17" t="n">
         <v>112195.88</v>
       </c>
+      <c r="F17" t="n">
+        <v>116668.72</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -765,6 +818,9 @@
       <c r="E18" t="n">
         <v>108964.06</v>
       </c>
+      <c r="F18" t="n">
+        <v>109167.04</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -782,6 +838,9 @@
       <c r="E19" t="n">
         <v>751930.59</v>
       </c>
+      <c r="F19" t="n">
+        <v>744947.75</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -801,6 +860,9 @@
       <c r="E20" t="n">
         <v>170009.73</v>
       </c>
+      <c r="F20" t="n">
+        <v>170942.34</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -820,6 +882,9 @@
       <c r="E21" t="n">
         <v>3921133.09</v>
       </c>
+      <c r="F21" t="n">
+        <v>3921766.11</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -839,6 +904,9 @@
       <c r="E22" t="n">
         <v>29602.93</v>
       </c>
+      <c r="F22" t="n">
+        <v>29651.83</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -858,6 +926,9 @@
       <c r="E23" t="n">
         <v>2013.81</v>
       </c>
+      <c r="F23" t="n">
+        <v>2004.58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -877,6 +948,9 @@
       <c r="E24" t="n">
         <v>131190.33</v>
       </c>
+      <c r="F24" t="n">
+        <v>131294.67</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,6 +970,9 @@
       <c r="E25" t="n">
         <v>161564.12</v>
       </c>
+      <c r="F25" t="n">
+        <v>161139.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -915,6 +992,9 @@
       <c r="E26" t="n">
         <v>44411.51</v>
       </c>
+      <c r="F26" t="n">
+        <v>43987.33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -934,6 +1014,9 @@
       <c r="E27" t="n">
         <v>3647.03</v>
       </c>
+      <c r="F27" t="n">
+        <v>3621.41</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -953,6 +1036,9 @@
       <c r="E28" t="n">
         <v>41000.29</v>
       </c>
+      <c r="F28" t="n">
+        <v>40900.51</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -972,6 +1058,9 @@
       <c r="E29" t="n">
         <v>28147.86</v>
       </c>
+      <c r="F29" t="n">
+        <v>28136.16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -990,6 +1079,9 @@
       </c>
       <c r="E30" t="n">
         <v>20021.43</v>
+      </c>
+      <c r="F30" t="n">
+        <v>20040.69</v>
       </c>
     </row>
     <row r="31">
@@ -1008,6 +1100,9 @@
       <c r="E31" t="n">
         <v>98109.58</v>
       </c>
+      <c r="F31" t="n">
+        <v>98168.33</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1027,6 +1122,9 @@
       <c r="E32" t="n">
         <v>227622.62</v>
       </c>
+      <c r="F32" t="n">
+        <v>227847.22</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1046,6 +1144,9 @@
       <c r="E33" t="n">
         <v>80712.02</v>
       </c>
+      <c r="F33" t="n">
+        <v>80819.14999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1065,6 +1166,9 @@
       <c r="E34" t="n">
         <v>86453.44</v>
       </c>
+      <c r="F34" t="n">
+        <v>86502.89</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1084,6 +1188,9 @@
       <c r="E35" t="n">
         <v>57223.75</v>
       </c>
+      <c r="F35" t="n">
+        <v>62018.58</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1103,6 +1210,9 @@
       <c r="E36" t="n">
         <v>343624.62</v>
       </c>
+      <c r="F36" t="n">
+        <v>343161.76</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1122,6 +1232,9 @@
       <c r="E37" t="n">
         <v>414459.29</v>
       </c>
+      <c r="F37" t="n">
+        <v>415087.67</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1139,6 +1252,7 @@
         <v>1422133.76</v>
       </c>
       <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1158,6 +1272,9 @@
       <c r="E39" t="n">
         <v>2091666.21</v>
       </c>
+      <c r="F39" t="n">
+        <v>2093472.15</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1177,6 +1294,9 @@
       <c r="E40" t="n">
         <v>40084.27</v>
       </c>
+      <c r="F40" t="n">
+        <v>40263.54</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1196,6 +1316,9 @@
       <c r="E41" t="n">
         <v>342126.86</v>
       </c>
+      <c r="F41" t="n">
+        <v>342016.4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1214,6 +1337,9 @@
       </c>
       <c r="E42" t="n">
         <v>13000820.68</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12996623.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>220243.54</v>
       </c>
+      <c r="G2" t="n">
+        <v>220181.93</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>150419.96</v>
       </c>
+      <c r="G3" t="n">
+        <v>150316.37</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>58594.61</v>
       </c>
+      <c r="G4" t="n">
+        <v>58453.27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>180169.6</v>
       </c>
+      <c r="G5" t="n">
+        <v>179152.98</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>8980.6</v>
       </c>
+      <c r="G6" t="n">
+        <v>9000.93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>671909.63</v>
       </c>
+      <c r="G7" t="n">
+        <v>668396.85</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>9749.690000000001</v>
       </c>
+      <c r="G8" t="n">
+        <v>9740.76</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>15162.03</v>
       </c>
+      <c r="G9" t="n">
+        <v>15158.45</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>44996.74</v>
       </c>
+      <c r="G10" t="n">
+        <v>45000.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>230446.25</v>
       </c>
+      <c r="G11" t="n">
+        <v>230700.16</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -700,6 +735,9 @@
       </c>
       <c r="F12" t="n">
         <v>1557640.7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1548146.3</v>
       </c>
     </row>
     <row r="13">
@@ -721,6 +759,9 @@
       <c r="F13" t="n">
         <v>240970.69</v>
       </c>
+      <c r="G13" t="n">
+        <v>241309.81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -741,6 +782,9 @@
       <c r="F14" t="n">
         <v>233737.46</v>
       </c>
+      <c r="G14" t="n">
+        <v>233765.23</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -761,6 +805,9 @@
       <c r="F15" t="n">
         <v>310284.28</v>
       </c>
+      <c r="G15" t="n">
+        <v>310255.58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -781,6 +828,9 @@
       <c r="F16" t="n">
         <v>91707.50999999999</v>
       </c>
+      <c r="G16" t="n">
+        <v>92862.59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -801,6 +851,9 @@
       <c r="F17" t="n">
         <v>116668.72</v>
       </c>
+      <c r="G17" t="n">
+        <v>120903.31</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -821,6 +874,9 @@
       <c r="F18" t="n">
         <v>109167.04</v>
       </c>
+      <c r="G18" t="n">
+        <v>108494.54</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -841,6 +897,9 @@
       <c r="F19" t="n">
         <v>744947.75</v>
       </c>
+      <c r="G19" t="n">
+        <v>748228.74</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -863,6 +922,9 @@
       <c r="F20" t="n">
         <v>170942.34</v>
       </c>
+      <c r="G20" t="n">
+        <v>169824.13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -885,6 +947,9 @@
       <c r="F21" t="n">
         <v>3921766.11</v>
       </c>
+      <c r="G21" t="n">
+        <v>3746929.18</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -907,6 +972,9 @@
       <c r="F22" t="n">
         <v>29651.83</v>
       </c>
+      <c r="G22" t="n">
+        <v>29546.27</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -929,6 +997,9 @@
       <c r="F23" t="n">
         <v>2004.58</v>
       </c>
+      <c r="G23" t="n">
+        <v>1978.16</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -951,6 +1022,9 @@
       <c r="F24" t="n">
         <v>131294.67</v>
       </c>
+      <c r="G24" t="n">
+        <v>130980.99</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -973,6 +1047,9 @@
       <c r="F25" t="n">
         <v>161139.4</v>
       </c>
+      <c r="G25" t="n">
+        <v>161823</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -995,6 +1072,9 @@
       <c r="F26" t="n">
         <v>43987.33</v>
       </c>
+      <c r="G26" t="n">
+        <v>43884.82</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1017,6 +1097,9 @@
       <c r="F27" t="n">
         <v>3621.41</v>
       </c>
+      <c r="G27" t="n">
+        <v>3625.06</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1039,6 +1122,9 @@
       <c r="F28" t="n">
         <v>40900.51</v>
       </c>
+      <c r="G28" t="n">
+        <v>41009.56</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1061,6 +1147,9 @@
       <c r="F29" t="n">
         <v>28136.16</v>
       </c>
+      <c r="G29" t="n">
+        <v>28096.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1082,6 +1171,9 @@
       </c>
       <c r="F30" t="n">
         <v>20040.69</v>
+      </c>
+      <c r="G30" t="n">
+        <v>20033.15</v>
       </c>
     </row>
     <row r="31">
@@ -1103,6 +1195,9 @@
       <c r="F31" t="n">
         <v>98168.33</v>
       </c>
+      <c r="G31" t="n">
+        <v>98290.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1125,6 +1220,9 @@
       <c r="F32" t="n">
         <v>227847.22</v>
       </c>
+      <c r="G32" t="n">
+        <v>228094.08</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1147,6 +1245,9 @@
       <c r="F33" t="n">
         <v>80819.14999999999</v>
       </c>
+      <c r="G33" t="n">
+        <v>80757.33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1169,6 +1270,9 @@
       <c r="F34" t="n">
         <v>86502.89</v>
       </c>
+      <c r="G34" t="n">
+        <v>86836.28</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1191,6 +1295,9 @@
       <c r="F35" t="n">
         <v>62018.58</v>
       </c>
+      <c r="G35" t="n">
+        <v>62647.08</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1213,6 +1320,9 @@
       <c r="F36" t="n">
         <v>343161.76</v>
       </c>
+      <c r="G36" t="n">
+        <v>343090.58</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1235,6 +1345,9 @@
       <c r="F37" t="n">
         <v>415087.67</v>
       </c>
+      <c r="G37" t="n">
+        <v>415135.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1253,6 +1366,7 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1275,6 +1389,9 @@
       <c r="F39" t="n">
         <v>2093472.15</v>
       </c>
+      <c r="G39" t="n">
+        <v>2091596.32</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1297,6 +1414,9 @@
       <c r="F40" t="n">
         <v>40263.54</v>
       </c>
+      <c r="G40" t="n">
+        <v>40084.1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1319,6 +1439,9 @@
       <c r="F41" t="n">
         <v>342016.4</v>
       </c>
+      <c r="G41" t="n">
+        <v>337219.21</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1340,6 +1463,9 @@
       </c>
       <c r="F42" t="n">
         <v>12996623.12</v>
+      </c>
+      <c r="G42" t="n">
+        <v>12814329.98</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>220181.93</v>
       </c>
+      <c r="H2" t="n">
+        <v>219699.82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>150316.37</v>
       </c>
+      <c r="H3" t="n">
+        <v>151388.79</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>58453.27</v>
       </c>
+      <c r="H4" t="n">
+        <v>66443.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>179152.98</v>
       </c>
+      <c r="H5" t="n">
+        <v>179055.14</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>9000.93</v>
       </c>
+      <c r="H6" t="n">
+        <v>8979.68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>668396.85</v>
       </c>
+      <c r="H7" t="n">
+        <v>671248.1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>9740.76</v>
       </c>
+      <c r="H8" t="n">
+        <v>9787.02</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>15158.45</v>
       </c>
+      <c r="H9" t="n">
+        <v>15163.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>45000.05</v>
       </c>
+      <c r="H10" t="n">
+        <v>44989.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>230700.16</v>
       </c>
+      <c r="H11" t="n">
+        <v>230155.58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -738,6 +773,9 @@
       </c>
       <c r="G12" t="n">
         <v>1548146.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1538429.66</v>
       </c>
     </row>
     <row r="13">
@@ -762,6 +800,9 @@
       <c r="G13" t="n">
         <v>241309.81</v>
       </c>
+      <c r="H13" t="n">
+        <v>239472.81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -785,6 +826,9 @@
       <c r="G14" t="n">
         <v>233765.23</v>
       </c>
+      <c r="H14" t="n">
+        <v>233424.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -808,6 +852,9 @@
       <c r="G15" t="n">
         <v>310255.58</v>
       </c>
+      <c r="H15" t="n">
+        <v>312037.57</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -831,6 +878,9 @@
       <c r="G16" t="n">
         <v>92862.59</v>
       </c>
+      <c r="H16" t="n">
+        <v>91300.10000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -854,6 +904,9 @@
       <c r="G17" t="n">
         <v>120903.31</v>
       </c>
+      <c r="H17" t="n">
+        <v>120788.17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -877,6 +930,9 @@
       <c r="G18" t="n">
         <v>108494.54</v>
       </c>
+      <c r="H18" t="n">
+        <v>109055.61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -900,6 +956,9 @@
       <c r="G19" t="n">
         <v>748228.74</v>
       </c>
+      <c r="H19" t="n">
+        <v>749503.6800000001</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -925,547 +984,630 @@
       <c r="G20" t="n">
         <v>169824.13</v>
       </c>
+      <c r="H20" t="n">
+        <v>170871.36</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>3923342</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3924173.45</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3920165.58</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3921133.09</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3921766.11</v>
-      </c>
-      <c r="G21" t="n">
-        <v>3746929.18</v>
+          <t>Gainvest Renta Variable</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>260004.73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44513.71</v>
+        <v>3923342</v>
       </c>
       <c r="C22" t="n">
-        <v>44699.71</v>
+        <v>3924173.45</v>
       </c>
       <c r="D22" t="n">
-        <v>29695.77</v>
+        <v>3920165.58</v>
       </c>
       <c r="E22" t="n">
-        <v>29602.93</v>
+        <v>3921133.09</v>
       </c>
       <c r="F22" t="n">
-        <v>29651.83</v>
+        <v>3921766.11</v>
       </c>
       <c r="G22" t="n">
-        <v>29546.27</v>
+        <v>3746929.18</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3751313.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2015.97</v>
+        <v>44513.71</v>
       </c>
       <c r="C23" t="n">
-        <v>2001.29</v>
+        <v>44699.71</v>
       </c>
       <c r="D23" t="n">
-        <v>2016.23</v>
+        <v>29695.77</v>
       </c>
       <c r="E23" t="n">
-        <v>2013.81</v>
+        <v>29602.93</v>
       </c>
       <c r="F23" t="n">
-        <v>2004.58</v>
+        <v>29651.83</v>
       </c>
       <c r="G23" t="n">
-        <v>1978.16</v>
+        <v>29546.27</v>
+      </c>
+      <c r="H23" t="n">
+        <v>29576.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>131464.87</v>
+        <v>2015.97</v>
       </c>
       <c r="C24" t="n">
-        <v>131660.55</v>
+        <v>2001.29</v>
       </c>
       <c r="D24" t="n">
-        <v>131293.31</v>
+        <v>2016.23</v>
       </c>
       <c r="E24" t="n">
-        <v>131190.33</v>
+        <v>2013.81</v>
       </c>
       <c r="F24" t="n">
-        <v>131294.67</v>
+        <v>2004.58</v>
       </c>
       <c r="G24" t="n">
-        <v>130980.99</v>
+        <v>1978.16</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2009.97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179125.87</v>
+        <v>131464.87</v>
       </c>
       <c r="C25" t="n">
-        <v>177945.73</v>
+        <v>131660.55</v>
       </c>
       <c r="D25" t="n">
-        <v>162096.54</v>
+        <v>131293.31</v>
       </c>
       <c r="E25" t="n">
-        <v>161564.12</v>
+        <v>131190.33</v>
       </c>
       <c r="F25" t="n">
-        <v>161139.4</v>
+        <v>131294.67</v>
       </c>
       <c r="G25" t="n">
-        <v>161823</v>
+        <v>130980.99</v>
+      </c>
+      <c r="H25" t="n">
+        <v>126136.75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31611.5</v>
+        <v>179125.87</v>
       </c>
       <c r="C26" t="n">
-        <v>32867.42</v>
+        <v>177945.73</v>
       </c>
       <c r="D26" t="n">
-        <v>42489.83</v>
+        <v>162096.54</v>
       </c>
       <c r="E26" t="n">
-        <v>44411.51</v>
+        <v>161564.12</v>
       </c>
       <c r="F26" t="n">
-        <v>43987.33</v>
+        <v>161139.4</v>
       </c>
       <c r="G26" t="n">
-        <v>43884.82</v>
+        <v>161823</v>
+      </c>
+      <c r="H26" t="n">
+        <v>161866.26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3172.93</v>
+        <v>31611.5</v>
       </c>
       <c r="C27" t="n">
-        <v>3195.36</v>
+        <v>32867.42</v>
       </c>
       <c r="D27" t="n">
-        <v>3658.87</v>
+        <v>42489.83</v>
       </c>
       <c r="E27" t="n">
-        <v>3647.03</v>
+        <v>44411.51</v>
       </c>
       <c r="F27" t="n">
-        <v>3621.41</v>
+        <v>43987.33</v>
       </c>
       <c r="G27" t="n">
-        <v>3625.06</v>
+        <v>43884.82</v>
+      </c>
+      <c r="H27" t="n">
+        <v>52277.71</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>17221.56</v>
+        <v>3172.93</v>
       </c>
       <c r="C28" t="n">
-        <v>17199.12</v>
+        <v>3195.36</v>
       </c>
       <c r="D28" t="n">
-        <v>36859.53</v>
+        <v>3658.87</v>
       </c>
       <c r="E28" t="n">
-        <v>41000.29</v>
+        <v>3647.03</v>
       </c>
       <c r="F28" t="n">
-        <v>40900.51</v>
+        <v>3621.41</v>
       </c>
       <c r="G28" t="n">
-        <v>41009.56</v>
+        <v>3625.06</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3619.41</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17914.92</v>
+        <v>17221.56</v>
       </c>
       <c r="C29" t="n">
-        <v>18105.08</v>
+        <v>17199.12</v>
       </c>
       <c r="D29" t="n">
-        <v>18021.53</v>
+        <v>36859.53</v>
       </c>
       <c r="E29" t="n">
-        <v>28147.86</v>
+        <v>41000.29</v>
       </c>
       <c r="F29" t="n">
-        <v>28136.16</v>
+        <v>40900.51</v>
       </c>
       <c r="G29" t="n">
-        <v>28096.8</v>
+        <v>41009.56</v>
+      </c>
+      <c r="H29" t="n">
+        <v>41153.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>27070.97</v>
+        <v>17914.92</v>
       </c>
       <c r="C30" t="n">
-        <v>27054.06</v>
+        <v>18105.08</v>
       </c>
       <c r="D30" t="n">
-        <v>20063.61</v>
+        <v>18021.53</v>
       </c>
       <c r="E30" t="n">
-        <v>20021.43</v>
+        <v>28147.86</v>
       </c>
       <c r="F30" t="n">
-        <v>20040.69</v>
+        <v>28136.16</v>
       </c>
       <c r="G30" t="n">
-        <v>20033.15</v>
+        <v>28096.8</v>
+      </c>
+      <c r="H30" t="n">
+        <v>28043.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98230.83</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>27070.97</v>
+      </c>
+      <c r="C31" t="n">
+        <v>27054.06</v>
+      </c>
       <c r="D31" t="n">
-        <v>97963.47</v>
+        <v>20063.61</v>
       </c>
       <c r="E31" t="n">
-        <v>98109.58</v>
+        <v>20021.43</v>
       </c>
       <c r="F31" t="n">
-        <v>98168.33</v>
+        <v>20040.69</v>
       </c>
       <c r="G31" t="n">
-        <v>98290.08</v>
+        <v>20033.15</v>
+      </c>
+      <c r="H31" t="n">
+        <v>20173.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>59223</v>
-      </c>
-      <c r="C32" t="n">
-        <v>59055.94</v>
-      </c>
+        <v>98230.83</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>59576.39</v>
+        <v>97963.47</v>
       </c>
       <c r="E32" t="n">
-        <v>227622.62</v>
+        <v>98109.58</v>
       </c>
       <c r="F32" t="n">
-        <v>227847.22</v>
+        <v>98168.33</v>
       </c>
       <c r="G32" t="n">
-        <v>228094.08</v>
+        <v>98290.08</v>
+      </c>
+      <c r="H32" t="n">
+        <v>98521.56</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70754.56</v>
+        <v>59223</v>
       </c>
       <c r="C33" t="n">
-        <v>70741.14</v>
+        <v>59055.94</v>
       </c>
       <c r="D33" t="n">
-        <v>80825.78999999999</v>
+        <v>59576.39</v>
       </c>
       <c r="E33" t="n">
-        <v>80712.02</v>
+        <v>227622.62</v>
       </c>
       <c r="F33" t="n">
-        <v>80819.14999999999</v>
+        <v>227847.22</v>
       </c>
       <c r="G33" t="n">
-        <v>80757.33</v>
+        <v>228094.08</v>
+      </c>
+      <c r="H33" t="n">
+        <v>227695.84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86322.5</v>
+        <v>70754.56</v>
       </c>
       <c r="C34" t="n">
-        <v>86828.71000000001</v>
+        <v>70741.14</v>
       </c>
       <c r="D34" t="n">
-        <v>86359.42999999999</v>
+        <v>80825.78999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>86453.44</v>
+        <v>80712.02</v>
       </c>
       <c r="F34" t="n">
-        <v>86502.89</v>
+        <v>80819.14999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>86836.28</v>
+        <v>80757.33</v>
+      </c>
+      <c r="H34" t="n">
+        <v>85701.46000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>62224.84</v>
+        <v>86322.5</v>
       </c>
       <c r="C35" t="n">
-        <v>62146.73</v>
+        <v>86828.71000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>58491.76</v>
+        <v>86359.42999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>57223.75</v>
+        <v>86453.44</v>
       </c>
       <c r="F35" t="n">
-        <v>62018.58</v>
+        <v>86502.89</v>
       </c>
       <c r="G35" t="n">
-        <v>62647.08</v>
+        <v>86836.28</v>
+      </c>
+      <c r="H35" t="n">
+        <v>86654.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>141434.49</v>
+        <v>62224.84</v>
       </c>
       <c r="C36" t="n">
-        <v>238036.54</v>
+        <v>62146.73</v>
       </c>
       <c r="D36" t="n">
-        <v>342975.05</v>
+        <v>58491.76</v>
       </c>
       <c r="E36" t="n">
-        <v>343624.62</v>
+        <v>57223.75</v>
       </c>
       <c r="F36" t="n">
-        <v>343161.76</v>
+        <v>62018.58</v>
       </c>
       <c r="G36" t="n">
-        <v>343090.58</v>
+        <v>62647.08</v>
+      </c>
+      <c r="H36" t="n">
+        <v>62645.24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>376145.49</v>
+        <v>141434.49</v>
       </c>
       <c r="C37" t="n">
-        <v>376234.52</v>
+        <v>238036.54</v>
       </c>
       <c r="D37" t="n">
-        <v>375697.1</v>
+        <v>342975.05</v>
       </c>
       <c r="E37" t="n">
-        <v>414459.29</v>
+        <v>343624.62</v>
       </c>
       <c r="F37" t="n">
-        <v>415087.67</v>
+        <v>343161.76</v>
       </c>
       <c r="G37" t="n">
-        <v>415135.16</v>
+        <v>343090.58</v>
+      </c>
+      <c r="H37" t="n">
+        <v>344485.63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1376831.53</v>
+        <v>376145.49</v>
       </c>
       <c r="C38" t="n">
-        <v>1379923.04</v>
+        <v>376234.52</v>
       </c>
       <c r="D38" t="n">
-        <v>1422133.76</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+        <v>375697.1</v>
+      </c>
+      <c r="E38" t="n">
+        <v>414459.29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>415087.67</v>
+      </c>
+      <c r="G38" t="n">
+        <v>415135.16</v>
+      </c>
+      <c r="H38" t="n">
+        <v>416761.18</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2091740.24</v>
+        <v>1376831.53</v>
       </c>
       <c r="C39" t="n">
-        <v>2092740.93</v>
+        <v>1379923.04</v>
       </c>
       <c r="D39" t="n">
-        <v>2092542.65</v>
-      </c>
-      <c r="E39" t="n">
-        <v>2091666.21</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2093472.15</v>
-      </c>
-      <c r="G39" t="n">
-        <v>2091596.32</v>
-      </c>
+        <v>1422133.76</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>40058.31</v>
+        <v>2091740.24</v>
       </c>
       <c r="C40" t="n">
-        <v>40239.96</v>
+        <v>2092740.93</v>
       </c>
       <c r="D40" t="n">
-        <v>40215.1</v>
+        <v>2092542.65</v>
       </c>
       <c r="E40" t="n">
-        <v>40084.27</v>
+        <v>2091666.21</v>
       </c>
       <c r="F40" t="n">
-        <v>40263.54</v>
+        <v>2093472.15</v>
       </c>
       <c r="G40" t="n">
-        <v>40084.1</v>
+        <v>2091596.32</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2090748.15</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>356362.63</v>
+        <v>40058.31</v>
       </c>
       <c r="C41" t="n">
-        <v>390780.11</v>
+        <v>40239.96</v>
       </c>
       <c r="D41" t="n">
-        <v>362875.89</v>
+        <v>40215.1</v>
       </c>
       <c r="E41" t="n">
-        <v>342126.86</v>
+        <v>40084.27</v>
       </c>
       <c r="F41" t="n">
-        <v>342016.4</v>
+        <v>40263.54</v>
       </c>
       <c r="G41" t="n">
-        <v>337219.21</v>
+        <v>40084.1</v>
+      </c>
+      <c r="H41" t="n">
+        <v>40127</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>356362.63</v>
+      </c>
+      <c r="C42" t="n">
+        <v>390780.11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>362875.89</v>
+      </c>
+      <c r="E42" t="n">
+        <v>342126.86</v>
+      </c>
+      <c r="F42" t="n">
+        <v>342016.4</v>
+      </c>
+      <c r="G42" t="n">
+        <v>337219.21</v>
+      </c>
+      <c r="H42" t="n">
+        <v>335674.59</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>13898142.53</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>12114183.54</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>14152159.87</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E43" t="n">
         <v>13000820.68</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F43" t="n">
         <v>12996623.12</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G43" t="n">
         <v>12814329.98</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13091309.05</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>219699.82</v>
       </c>
+      <c r="I2" t="n">
+        <v>198135.49</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>151388.79</v>
       </c>
+      <c r="I3" t="n">
+        <v>150331.75</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>66443.28</v>
       </c>
+      <c r="I4" t="n">
+        <v>66255.59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>179055.14</v>
       </c>
+      <c r="I5" t="n">
+        <v>138241.76</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>8979.68</v>
       </c>
+      <c r="I6" t="n">
+        <v>8893.68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>671248.1</v>
       </c>
+      <c r="I7" t="n">
+        <v>672918.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>9787.02</v>
       </c>
+      <c r="I8" t="n">
+        <v>9773.68</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>15163.14</v>
       </c>
+      <c r="I9" t="n">
+        <v>15164.77</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>44989.53</v>
       </c>
+      <c r="I10" t="n">
+        <v>45019.06</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>230155.58</v>
       </c>
+      <c r="I11" t="n">
+        <v>230270.22</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -776,6 +811,9 @@
       </c>
       <c r="H12" t="n">
         <v>1538429.66</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1523926.37</v>
       </c>
     </row>
     <row r="13">
@@ -803,6 +841,9 @@
       <c r="H13" t="n">
         <v>239472.81</v>
       </c>
+      <c r="I13" t="n">
+        <v>240482.41</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -829,6 +870,9 @@
       <c r="H14" t="n">
         <v>233424.6</v>
       </c>
+      <c r="I14" t="n">
+        <v>234252.13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -855,6 +899,9 @@
       <c r="H15" t="n">
         <v>312037.57</v>
       </c>
+      <c r="I15" t="n">
+        <v>311415.21</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -881,6 +928,9 @@
       <c r="H16" t="n">
         <v>91300.10000000001</v>
       </c>
+      <c r="I16" t="n">
+        <v>91227.46000000001</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -907,6 +957,9 @@
       <c r="H17" t="n">
         <v>120788.17</v>
       </c>
+      <c r="I17" t="n">
+        <v>120789.24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -933,6 +986,9 @@
       <c r="H18" t="n">
         <v>109055.61</v>
       </c>
+      <c r="I18" t="n">
+        <v>108050.51</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -959,6 +1015,9 @@
       <c r="H19" t="n">
         <v>749503.6800000001</v>
       </c>
+      <c r="I19" t="n">
+        <v>740999.96</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -986,6 +1045,9 @@
       </c>
       <c r="H20" t="n">
         <v>170871.36</v>
+      </c>
+      <c r="I20" t="n">
+        <v>170971.2</v>
       </c>
     </row>
     <row r="21">
@@ -1003,6 +1065,9 @@
       <c r="H21" t="n">
         <v>260004.73</v>
       </c>
+      <c r="I21" t="n">
+        <v>259741.01</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1031,6 +1096,9 @@
       <c r="H22" t="n">
         <v>3751313.07</v>
       </c>
+      <c r="I22" t="n">
+        <v>3751431.98</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1059,6 +1127,9 @@
       <c r="H23" t="n">
         <v>29576.96</v>
       </c>
+      <c r="I23" t="n">
+        <v>29680.06</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1087,6 +1158,9 @@
       <c r="H24" t="n">
         <v>2009.97</v>
       </c>
+      <c r="I24" t="n">
+        <v>2024.25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1115,6 +1189,9 @@
       <c r="H25" t="n">
         <v>126136.75</v>
       </c>
+      <c r="I25" t="n">
+        <v>111324.74</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1143,6 +1220,9 @@
       <c r="H26" t="n">
         <v>161866.26</v>
       </c>
+      <c r="I26" t="n">
+        <v>161246.63</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1171,6 +1251,9 @@
       <c r="H27" t="n">
         <v>52277.71</v>
       </c>
+      <c r="I27" t="n">
+        <v>52404.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1199,6 +1282,9 @@
       <c r="H28" t="n">
         <v>3619.41</v>
       </c>
+      <c r="I28" t="n">
+        <v>3617.84</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1227,6 +1313,9 @@
       <c r="H29" t="n">
         <v>41153.1</v>
       </c>
+      <c r="I29" t="n">
+        <v>41109.01</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1255,6 +1344,9 @@
       <c r="H30" t="n">
         <v>28043.33</v>
       </c>
+      <c r="I30" t="n">
+        <v>28104.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1282,6 +1374,9 @@
       </c>
       <c r="H31" t="n">
         <v>20173.86</v>
+      </c>
+      <c r="I31" t="n">
+        <v>20053.46</v>
       </c>
     </row>
     <row r="32">
@@ -1309,6 +1404,9 @@
       <c r="H32" t="n">
         <v>98521.56</v>
       </c>
+      <c r="I32" t="n">
+        <v>97897.69</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1337,6 +1435,9 @@
       <c r="H33" t="n">
         <v>227695.84</v>
       </c>
+      <c r="I33" t="n">
+        <v>227479.97</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1365,6 +1466,9 @@
       <c r="H34" t="n">
         <v>85701.46000000001</v>
       </c>
+      <c r="I34" t="n">
+        <v>65528.65</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1393,6 +1497,9 @@
       <c r="H35" t="n">
         <v>86654.2</v>
       </c>
+      <c r="I35" t="n">
+        <v>86264.38</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1421,6 +1528,9 @@
       <c r="H36" t="n">
         <v>62645.24</v>
       </c>
+      <c r="I36" t="n">
+        <v>62942.33</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1449,6 +1559,9 @@
       <c r="H37" t="n">
         <v>344485.63</v>
       </c>
+      <c r="I37" t="n">
+        <v>343307.68</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1476,6 +1589,9 @@
       </c>
       <c r="H38" t="n">
         <v>416761.18</v>
+      </c>
+      <c r="I38" t="n">
+        <v>414225.85</v>
       </c>
     </row>
     <row r="39">
@@ -1497,6 +1613,7 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1525,6 +1642,9 @@
       <c r="H40" t="n">
         <v>2090748.15</v>
       </c>
+      <c r="I40" t="n">
+        <v>2091085.04</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1553,6 +1673,9 @@
       <c r="H41" t="n">
         <v>40127</v>
       </c>
+      <c r="I41" t="n">
+        <v>40073.35</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1581,6 +1704,9 @@
       <c r="H42" t="n">
         <v>335674.59</v>
       </c>
+      <c r="I42" t="n">
+        <v>332478.51</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1608,6 +1734,9 @@
       </c>
       <c r="H43" t="n">
         <v>13091309.05</v>
+      </c>
+      <c r="I43" t="n">
+        <v>12966661.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>198135.49</v>
       </c>
+      <c r="J2" t="n">
+        <v>197732.41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>150331.75</v>
       </c>
+      <c r="J3" t="n">
+        <v>151759.56</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>66255.59</v>
       </c>
+      <c r="J4" t="n">
+        <v>67334.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>138241.76</v>
       </c>
+      <c r="J5" t="n">
+        <v>138645.49</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>8893.68</v>
       </c>
+      <c r="J6" t="n">
+        <v>9018.110000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>672918.13</v>
       </c>
+      <c r="J7" t="n">
+        <v>670796.72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>9773.68</v>
       </c>
+      <c r="J8" t="n">
+        <v>9713.25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>15164.77</v>
       </c>
+      <c r="J9" t="n">
+        <v>15158.39</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>45019.06</v>
       </c>
+      <c r="J10" t="n">
+        <v>44980.43</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>230270.22</v>
       </c>
+      <c r="J11" t="n">
+        <v>230651.51</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -814,6 +849,9 @@
       </c>
       <c r="I12" t="n">
         <v>1523926.37</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1507987.59</v>
       </c>
     </row>
     <row r="13">
@@ -844,6 +882,9 @@
       <c r="I13" t="n">
         <v>240482.41</v>
       </c>
+      <c r="J13" t="n">
+        <v>241231.35</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -873,6 +914,9 @@
       <c r="I14" t="n">
         <v>234252.13</v>
       </c>
+      <c r="J14" t="n">
+        <v>234331.35</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -902,6 +946,9 @@
       <c r="I15" t="n">
         <v>311415.21</v>
       </c>
+      <c r="J15" t="n">
+        <v>311407.64</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -931,6 +978,9 @@
       <c r="I16" t="n">
         <v>91227.46000000001</v>
       </c>
+      <c r="J16" t="n">
+        <v>92358.27</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -960,6 +1010,9 @@
       <c r="I17" t="n">
         <v>120789.24</v>
       </c>
+      <c r="J17" t="n">
+        <v>112356.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -989,6 +1042,9 @@
       <c r="I18" t="n">
         <v>108050.51</v>
       </c>
+      <c r="J18" t="n">
+        <v>99796.37</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1018,6 +1074,9 @@
       <c r="I19" t="n">
         <v>740999.96</v>
       </c>
+      <c r="J19" t="n">
+        <v>737036.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1048,6 +1107,9 @@
       </c>
       <c r="I20" t="n">
         <v>170971.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>171085.37</v>
       </c>
     </row>
     <row r="21">
@@ -1068,6 +1130,9 @@
       <c r="I21" t="n">
         <v>259741.01</v>
       </c>
+      <c r="J21" t="n">
+        <v>260086.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1099,6 +1164,9 @@
       <c r="I22" t="n">
         <v>3751431.98</v>
       </c>
+      <c r="J22" t="n">
+        <v>4002255.41</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1130,6 +1198,9 @@
       <c r="I23" t="n">
         <v>29680.06</v>
       </c>
+      <c r="J23" t="n">
+        <v>29531.33</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1161,6 +1232,9 @@
       <c r="I24" t="n">
         <v>2024.25</v>
       </c>
+      <c r="J24" t="n">
+        <v>1985.88</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1192,6 +1266,9 @@
       <c r="I25" t="n">
         <v>111324.74</v>
       </c>
+      <c r="J25" t="n">
+        <v>96600.64</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1223,6 +1300,9 @@
       <c r="I26" t="n">
         <v>161246.63</v>
       </c>
+      <c r="J26" t="n">
+        <v>161503.69</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1254,6 +1334,9 @@
       <c r="I27" t="n">
         <v>52404.59</v>
       </c>
+      <c r="J27" t="n">
+        <v>52194.14</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1285,6 +1368,9 @@
       <c r="I28" t="n">
         <v>3617.84</v>
       </c>
+      <c r="J28" t="n">
+        <v>3629.88</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1316,6 +1402,9 @@
       <c r="I29" t="n">
         <v>41109.01</v>
       </c>
+      <c r="J29" t="n">
+        <v>45463.89</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1347,6 +1436,9 @@
       <c r="I30" t="n">
         <v>28104.59</v>
       </c>
+      <c r="J30" t="n">
+        <v>28077.88</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1377,6 +1469,9 @@
       </c>
       <c r="I31" t="n">
         <v>20053.46</v>
+      </c>
+      <c r="J31" t="n">
+        <v>20031.45</v>
       </c>
     </row>
     <row r="32">
@@ -1407,6 +1502,9 @@
       <c r="I32" t="n">
         <v>97897.69</v>
       </c>
+      <c r="J32" t="n">
+        <v>98362.41</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1438,6 +1536,9 @@
       <c r="I33" t="n">
         <v>227479.97</v>
       </c>
+      <c r="J33" t="n">
+        <v>228143.65</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1469,6 +1570,9 @@
       <c r="I34" t="n">
         <v>65528.65</v>
       </c>
+      <c r="J34" t="n">
+        <v>69057.09</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1500,6 +1604,9 @@
       <c r="I35" t="n">
         <v>86264.38</v>
       </c>
+      <c r="J35" t="n">
+        <v>86924.00999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1531,6 +1638,9 @@
       <c r="I36" t="n">
         <v>62942.33</v>
       </c>
+      <c r="J36" t="n">
+        <v>62713.11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1562,6 +1672,9 @@
       <c r="I37" t="n">
         <v>343307.68</v>
       </c>
+      <c r="J37" t="n">
+        <v>344172.13</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1592,6 +1705,9 @@
       </c>
       <c r="I38" t="n">
         <v>414225.85</v>
+      </c>
+      <c r="J38" t="n">
+        <v>414018.98</v>
       </c>
     </row>
     <row r="39">
@@ -1614,6 +1730,7 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1645,6 +1762,9 @@
       <c r="I40" t="n">
         <v>2091085.04</v>
       </c>
+      <c r="J40" t="n">
+        <v>2092941.57</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1676,6 +1796,9 @@
       <c r="I41" t="n">
         <v>40073.35</v>
       </c>
+      <c r="J41" t="n">
+        <v>40085.48</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1707,6 +1830,9 @@
       <c r="I42" t="n">
         <v>332478.51</v>
       </c>
+      <c r="J42" t="n">
+        <v>337978.46</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1737,6 +1863,9 @@
       </c>
       <c r="I43" t="n">
         <v>12966661.72</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13181159.85</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>197732.41</v>
       </c>
+      <c r="K2" t="n">
+        <v>197672.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>151759.56</v>
       </c>
+      <c r="K3" t="n">
+        <v>150073.31</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>67334.28</v>
       </c>
+      <c r="K4" t="n">
+        <v>66496.52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>138645.49</v>
       </c>
+      <c r="K5" t="n">
+        <v>137753.25</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>9018.110000000001</v>
       </c>
+      <c r="K6" t="n">
+        <v>8983.309999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>670796.72</v>
       </c>
+      <c r="K7" t="n">
+        <v>671810.49</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>9713.25</v>
       </c>
+      <c r="K8" t="n">
+        <v>1176.33</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>15158.39</v>
       </c>
+      <c r="K9" t="n">
+        <v>15162.48</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>44980.43</v>
       </c>
+      <c r="K10" t="n">
+        <v>44996.8</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>230651.51</v>
       </c>
+      <c r="K11" t="n">
+        <v>230634.45</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -852,6 +887,9 @@
       </c>
       <c r="J12" t="n">
         <v>1507987.59</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1505762.75</v>
       </c>
     </row>
     <row r="13">
@@ -885,6 +923,9 @@
       <c r="J13" t="n">
         <v>241231.35</v>
       </c>
+      <c r="K13" t="n">
+        <v>239580.14</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -917,6 +958,9 @@
       <c r="J14" t="n">
         <v>234331.35</v>
       </c>
+      <c r="K14" t="n">
+        <v>234136.14</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -949,6 +993,9 @@
       <c r="J15" t="n">
         <v>311407.64</v>
       </c>
+      <c r="K15" t="n">
+        <v>310621.08</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -981,6 +1028,9 @@
       <c r="J16" t="n">
         <v>92358.27</v>
       </c>
+      <c r="K16" t="n">
+        <v>91269.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1013,6 +1063,9 @@
       <c r="J17" t="n">
         <v>112356.04</v>
       </c>
+      <c r="K17" t="n">
+        <v>103490.62</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1045,6 +1098,9 @@
       <c r="J18" t="n">
         <v>99796.37</v>
       </c>
+      <c r="K18" t="n">
+        <v>91373.78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1077,6 +1133,9 @@
       <c r="J19" t="n">
         <v>737036.3</v>
       </c>
+      <c r="K19" t="n">
+        <v>733639.09</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1110,6 +1169,9 @@
       </c>
       <c r="J20" t="n">
         <v>171085.37</v>
+      </c>
+      <c r="K20" t="n">
+        <v>170451.64</v>
       </c>
     </row>
     <row r="21">
@@ -1133,6 +1195,9 @@
       <c r="J21" t="n">
         <v>260086.8</v>
       </c>
+      <c r="K21" t="n">
+        <v>260193.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1167,6 +1232,9 @@
       <c r="J22" t="n">
         <v>4002255.41</v>
       </c>
+      <c r="K22" t="n">
+        <v>3997719.62</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1201,6 +1269,9 @@
       <c r="J23" t="n">
         <v>29531.33</v>
       </c>
+      <c r="K23" t="n">
+        <v>29658.77</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1235,6 +1306,9 @@
       <c r="J24" t="n">
         <v>1985.88</v>
       </c>
+      <c r="K24" t="n">
+        <v>1988.11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1269,6 +1343,9 @@
       <c r="J25" t="n">
         <v>96600.64</v>
       </c>
+      <c r="K25" t="n">
+        <v>91500.13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1303,6 +1380,9 @@
       <c r="J26" t="n">
         <v>161503.69</v>
       </c>
+      <c r="K26" t="n">
+        <v>161696.16</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1337,6 +1417,9 @@
       <c r="J27" t="n">
         <v>52194.14</v>
       </c>
+      <c r="K27" t="n">
+        <v>52358.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1371,6 +1454,9 @@
       <c r="J28" t="n">
         <v>3629.88</v>
       </c>
+      <c r="K28" t="n">
+        <v>3630.43</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1405,6 +1491,9 @@
       <c r="J29" t="n">
         <v>45463.89</v>
       </c>
+      <c r="K29" t="n">
+        <v>41663.32</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1439,6 +1528,9 @@
       <c r="J30" t="n">
         <v>28077.88</v>
       </c>
+      <c r="K30" t="n">
+        <v>28110.75</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1472,6 +1564,9 @@
       </c>
       <c r="J31" t="n">
         <v>20031.45</v>
+      </c>
+      <c r="K31" t="n">
+        <v>20069.71</v>
       </c>
     </row>
     <row r="32">
@@ -1505,6 +1600,9 @@
       <c r="J32" t="n">
         <v>98362.41</v>
       </c>
+      <c r="K32" t="n">
+        <v>98278.78999999999</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1539,6 +1637,9 @@
       <c r="J33" t="n">
         <v>228143.65</v>
       </c>
+      <c r="K33" t="n">
+        <v>228212.96</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1573,6 +1674,9 @@
       <c r="J34" t="n">
         <v>69057.09</v>
       </c>
+      <c r="K34" t="n">
+        <v>63263.16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1607,6 +1711,9 @@
       <c r="J35" t="n">
         <v>86924.00999999999</v>
       </c>
+      <c r="K35" t="n">
+        <v>86379.24000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1641,6 +1748,9 @@
       <c r="J36" t="n">
         <v>62713.11</v>
       </c>
+      <c r="K36" t="n">
+        <v>62553.94</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1675,6 +1785,9 @@
       <c r="J37" t="n">
         <v>344172.13</v>
       </c>
+      <c r="K37" t="n">
+        <v>343864.58</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1708,6 +1821,9 @@
       </c>
       <c r="J38" t="n">
         <v>414018.98</v>
+      </c>
+      <c r="K38" t="n">
+        <v>413222.8</v>
       </c>
     </row>
     <row r="39">
@@ -1731,6 +1847,7 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1765,6 +1882,9 @@
       <c r="J40" t="n">
         <v>2092941.57</v>
       </c>
+      <c r="K40" t="n">
+        <v>2091058.33</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1799,6 +1919,9 @@
       <c r="J41" t="n">
         <v>40085.48</v>
       </c>
+      <c r="K41" t="n">
+        <v>40256.34</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1833,6 +1956,9 @@
       <c r="J42" t="n">
         <v>337978.46</v>
       </c>
+      <c r="K42" t="n">
+        <v>336429.84</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1866,6 +1992,9 @@
       </c>
       <c r="J43" t="n">
         <v>13181159.85</v>
+      </c>
+      <c r="K43" t="n">
+        <v>13120763.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>197672.87</v>
       </c>
+      <c r="L2" t="n">
+        <v>179585.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>150073.31</v>
       </c>
+      <c r="L3" t="n">
+        <v>151555.08</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>66496.52</v>
       </c>
+      <c r="L4" t="n">
+        <v>50040.95</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>137753.25</v>
       </c>
+      <c r="L5" t="n">
+        <v>137225.83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>8983.309999999999</v>
       </c>
+      <c r="L6" t="n">
+        <v>8943.68</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>671810.49</v>
       </c>
+      <c r="L7" t="n">
+        <v>667583.33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>1176.33</v>
       </c>
+      <c r="L8" t="n">
+        <v>1181.22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>15162.48</v>
       </c>
+      <c r="L9" t="n">
+        <v>15160.84</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>44996.8</v>
       </c>
+      <c r="L10" t="n">
+        <v>44970.53</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>230634.45</v>
       </c>
+      <c r="L11" t="n">
+        <v>230438.86</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -890,6 +925,9 @@
       </c>
       <c r="K12" t="n">
         <v>1505762.75</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1499288.55</v>
       </c>
     </row>
     <row r="13">
@@ -926,6 +964,9 @@
       <c r="K13" t="n">
         <v>239580.14</v>
       </c>
+      <c r="L13" t="n">
+        <v>240156.32</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -961,6 +1002,9 @@
       <c r="K14" t="n">
         <v>234136.14</v>
       </c>
+      <c r="L14" t="n">
+        <v>234017.19</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -996,6 +1040,9 @@
       <c r="K15" t="n">
         <v>310621.08</v>
       </c>
+      <c r="L15" t="n">
+        <v>310960.12</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1031,6 +1078,9 @@
       <c r="K16" t="n">
         <v>91269.5</v>
       </c>
+      <c r="L16" t="n">
+        <v>92942.25</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1066,6 +1116,9 @@
       <c r="K17" t="n">
         <v>103490.62</v>
       </c>
+      <c r="L17" t="n">
+        <v>95088.11</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1101,6 +1154,9 @@
       <c r="K18" t="n">
         <v>91373.78</v>
       </c>
+      <c r="L18" t="n">
+        <v>92659.5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1136,6 +1192,9 @@
       <c r="K19" t="n">
         <v>733639.09</v>
       </c>
+      <c r="L19" t="n">
+        <v>716460.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1172,6 +1231,9 @@
       </c>
       <c r="K20" t="n">
         <v>170451.64</v>
+      </c>
+      <c r="L20" t="n">
+        <v>170521.1</v>
       </c>
     </row>
     <row r="21">
@@ -1198,6 +1260,9 @@
       <c r="K21" t="n">
         <v>260193.8</v>
       </c>
+      <c r="L21" t="n">
+        <v>259727.08</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1235,6 +1300,9 @@
       <c r="K22" t="n">
         <v>3997719.62</v>
       </c>
+      <c r="L22" t="n">
+        <v>4001427.59</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1272,6 +1340,9 @@
       <c r="K23" t="n">
         <v>29658.77</v>
       </c>
+      <c r="L23" t="n">
+        <v>29503.66</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1309,6 +1380,9 @@
       <c r="K24" t="n">
         <v>1988.11</v>
       </c>
+      <c r="L24" t="n">
+        <v>2026.64</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1346,6 +1420,9 @@
       <c r="K25" t="n">
         <v>91500.13</v>
       </c>
+      <c r="L25" t="n">
+        <v>86158.14</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1383,6 +1460,9 @@
       <c r="K26" t="n">
         <v>161696.16</v>
       </c>
+      <c r="L26" t="n">
+        <v>151236.88</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1420,6 +1500,9 @@
       <c r="K27" t="n">
         <v>52358.4</v>
       </c>
+      <c r="L27" t="n">
+        <v>51600.59</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1457,6 +1540,9 @@
       <c r="K28" t="n">
         <v>3630.43</v>
       </c>
+      <c r="L28" t="n">
+        <v>3652.8</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1494,6 +1580,9 @@
       <c r="K29" t="n">
         <v>41663.32</v>
       </c>
+      <c r="L29" t="n">
+        <v>35755.44</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1531,6 +1620,9 @@
       <c r="K30" t="n">
         <v>28110.75</v>
       </c>
+      <c r="L30" t="n">
+        <v>28085.19</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1567,6 +1659,9 @@
       </c>
       <c r="K31" t="n">
         <v>20069.71</v>
+      </c>
+      <c r="L31" t="n">
+        <v>20176.63</v>
       </c>
     </row>
     <row r="32">
@@ -1603,6 +1698,9 @@
       <c r="K32" t="n">
         <v>98278.78999999999</v>
       </c>
+      <c r="L32" t="n">
+        <v>98580.94</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1640,6 +1738,9 @@
       <c r="K33" t="n">
         <v>228212.96</v>
       </c>
+      <c r="L33" t="n">
+        <v>103941.97</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1677,6 +1778,9 @@
       <c r="K34" t="n">
         <v>63263.16</v>
       </c>
+      <c r="L34" t="n">
+        <v>59100.66</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1714,6 +1818,9 @@
       <c r="K35" t="n">
         <v>86379.24000000001</v>
       </c>
+      <c r="L35" t="n">
+        <v>86494.12</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1751,6 +1858,9 @@
       <c r="K36" t="n">
         <v>62553.94</v>
       </c>
+      <c r="L36" t="n">
+        <v>62803.34</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1788,6 +1898,9 @@
       <c r="K37" t="n">
         <v>343864.58</v>
       </c>
+      <c r="L37" t="n">
+        <v>343144.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1824,6 +1937,9 @@
       </c>
       <c r="K38" t="n">
         <v>413222.8</v>
+      </c>
+      <c r="L38" t="n">
+        <v>414326.72</v>
       </c>
     </row>
     <row r="39">
@@ -1848,6 +1964,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1885,6 +2002,9 @@
       <c r="K40" t="n">
         <v>2091058.33</v>
       </c>
+      <c r="L40" t="n">
+        <v>2094102.91</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1922,6 +2042,9 @@
       <c r="K41" t="n">
         <v>40256.34</v>
       </c>
+      <c r="L41" t="n">
+        <v>40031.04</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1959,6 +2082,9 @@
       <c r="K42" t="n">
         <v>336429.84</v>
       </c>
+      <c r="L42" t="n">
+        <v>331042.48</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1995,6 +2121,9 @@
       </c>
       <c r="K43" t="n">
         <v>13120763.89</v>
+      </c>
+      <c r="L43" t="n">
+        <v>12910656.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/TRAN.xlsx
+++ b/backend/src/excel_handler/files/TRAN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>179585.8</v>
       </c>
+      <c r="M2" t="n">
+        <v>179254.75</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>151555.08</v>
       </c>
+      <c r="M3" t="n">
+        <v>151766.01</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>50040.95</v>
       </c>
+      <c r="M4" t="n">
+        <v>50028.5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>137225.83</v>
       </c>
+      <c r="M5" t="n">
+        <v>137052.64</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>8943.68</v>
       </c>
+      <c r="M6" t="n">
+        <v>8924.959999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>667583.33</v>
       </c>
+      <c r="M7" t="n">
+        <v>668858.48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>1181.22</v>
       </c>
+      <c r="M8" t="n">
+        <v>1183.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>15160.84</v>
       </c>
+      <c r="M9" t="n">
+        <v>15158.92</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>44970.53</v>
       </c>
+      <c r="M10" t="n">
+        <v>45019.82</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>230438.86</v>
       </c>
+      <c r="M11" t="n">
+        <v>230535.77</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -928,6 +963,9 @@
       </c>
       <c r="L12" t="n">
         <v>1499288.55</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1476120.13</v>
       </c>
     </row>
     <row r="13">
@@ -967,6 +1005,9 @@
       <c r="L13" t="n">
         <v>240156.32</v>
       </c>
+      <c r="M13" t="n">
+        <v>240960.36</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1005,6 +1046,9 @@
       <c r="L14" t="n">
         <v>234017.19</v>
       </c>
+      <c r="M14" t="n">
+        <v>234294.49</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1043,6 +1087,9 @@
       <c r="L15" t="n">
         <v>310960.12</v>
       </c>
+      <c r="M15" t="n">
+        <v>311529.36</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1081,6 +1128,9 @@
       <c r="L16" t="n">
         <v>92942.25</v>
       </c>
+      <c r="M16" t="n">
+        <v>93591.36</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1119,6 +1169,9 @@
       <c r="L17" t="n">
         <v>95088.11</v>
       </c>
+      <c r="M17" t="n">
+        <v>96341</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1157,6 +1210,9 @@
       <c r="L18" t="n">
         <v>92659.5</v>
       </c>
+      <c r="M18" t="n">
+        <v>91659.34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1195,6 +1251,9 @@
       <c r="L19" t="n">
         <v>716460.95</v>
       </c>
+      <c r="M19" t="n">
+        <v>700134.3199999999</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1234,6 +1293,9 @@
       </c>
       <c r="L20" t="n">
         <v>170521.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>170559.38</v>
       </c>
     </row>
     <row r="21">
@@ -1263,6 +1325,9 @@
       <c r="L21" t="n">
         <v>259727.08</v>
       </c>
+      <c r="M21" t="n">
+        <v>259996.35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1303,6 +1368,9 @@
       <c r="L22" t="n">
         <v>4001427.59</v>
       </c>
+      <c r="M22" t="n">
+        <v>3998102.61</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1343,6 +1411,9 @@
       <c r="L23" t="n">
         <v>29503.66</v>
       </c>
+      <c r="M23" t="n">
+        <v>29570.13</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1383,6 +1454,9 @@
       <c r="L24" t="n">
         <v>2026.64</v>
       </c>
+      <c r="M24" t="n">
+        <v>1983.55</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1423,6 +1497,9 @@
       <c r="L25" t="n">
         <v>86158.14</v>
       </c>
+      <c r="M25" t="n">
+        <v>86346.17999999999</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1463,6 +1540,9 @@
       <c r="L26" t="n">
         <v>151236.88</v>
       </c>
+      <c r="M26" t="n">
+        <v>147160.31</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1503,6 +1583,9 @@
       <c r="L27" t="n">
         <v>51600.59</v>
       </c>
+      <c r="M27" t="n">
+        <v>45728.5</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1543,6 +1626,9 @@
       <c r="L28" t="n">
         <v>3652.8</v>
       </c>
+      <c r="M28" t="n">
+        <v>3616.76</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1583,6 +1669,9 @@
       <c r="L29" t="n">
         <v>35755.44</v>
       </c>
+      <c r="M29" t="n">
+        <v>35979.16</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1623,6 +1712,9 @@
       <c r="L30" t="n">
         <v>28085.19</v>
       </c>
+      <c r="M30" t="n">
+        <v>28162.29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1662,6 +1754,9 @@
       </c>
       <c r="L31" t="n">
         <v>20176.63</v>
+      </c>
+      <c r="M31" t="n">
+        <v>20133.38</v>
       </c>
     </row>
     <row r="32">
@@ -1701,6 +1796,9 @@
       <c r="L32" t="n">
         <v>98580.94</v>
       </c>
+      <c r="M32" t="n">
+        <v>97901.32000000001</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1741,6 +1839,9 @@
       <c r="L33" t="n">
         <v>103941.97</v>
       </c>
+      <c r="M33" t="n">
+        <v>104022.8</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1781,6 +1882,9 @@
       <c r="L34" t="n">
         <v>59100.66</v>
       </c>
+      <c r="M34" t="n">
+        <v>59253.5</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1821,6 +1925,9 @@
       <c r="L35" t="n">
         <v>86494.12</v>
       </c>
+      <c r="M35" t="n">
+        <v>86716.39</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1861,6 +1968,9 @@
       <c r="L36" t="n">
         <v>62803.34</v>
       </c>
+      <c r="M36" t="n">
+        <v>60816.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1901,6 +2011,9 @@
       <c r="L37" t="n">
         <v>343144.16</v>
       </c>
+      <c r="M37" t="n">
+        <v>343811.79</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1940,6 +2053,9 @@
       </c>
       <c r="L38" t="n">
         <v>414326.72</v>
+      </c>
+      <c r="M38" t="n">
+        <v>414696.82</v>
       </c>
     </row>
     <row r="39">
@@ -1965,6 +2081,7 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2005,6 +2122,9 @@
       <c r="L40" t="n">
         <v>2094102.91</v>
       </c>
+      <c r="M40" t="n">
+        <v>2090484.02</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2045,6 +2165,9 @@
       <c r="L41" t="n">
         <v>40031.04</v>
       </c>
+      <c r="M41" t="n">
+        <v>40174.37</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2085,6 +2208,9 @@
       <c r="L42" t="n">
         <v>331042.48</v>
       </c>
+      <c r="M42" t="n">
+        <v>329682.84</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2124,6 +2250,9 @@
       </c>
       <c r="L43" t="n">
         <v>12910656.71</v>
+      </c>
+      <c r="M43" t="n">
+        <v>12857630.62</v>
       </c>
     </row>
   </sheetData>
